--- a/data/trans_bre/IP2005-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP2005-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-7,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>-1,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>-2,03%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>-7,89%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>-1,33%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 9,45</t>
+          <t>-17,25; 12,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 4,47</t>
+          <t>-22,3; 18,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 4,65</t>
+          <t>-26,49; 6,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 8,27</t>
+          <t>-13,67; 17,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 11,67</t>
+          <t>-18,79; 13,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 5,05</t>
+          <t>-23,37; 23,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 5,12</t>
+          <t>-27,49; 7,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 9,66</t>
+          <t>-13,98; 21,14</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,15</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,44%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,66%</t>
+          <t>-0,48%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,14%</t>
+          <t>3,44%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 3,7</t>
+          <t>-1,97; 9,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 2,96</t>
+          <t>-5,4; 4,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 5,38</t>
+          <t>-3,43; 4,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,19; 1,84</t>
+          <t>-1,92; 8,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 4,2</t>
+          <t>-2,28; 11,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 3,25</t>
+          <t>-5,86; 5,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 6,02</t>
+          <t>-3,62; 5,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 2,25</t>
+          <t>-1,97; 9,66</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,4</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,89%</t>
+          <t>-3,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,03%</t>
+          <t>-0,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-7,89%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-1,33%</t>
+          <t>-0,57%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 12,16</t>
+          <t>-7,97; 1,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 18,27</t>
+          <t>-6,82; 4,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,49; 6,66</t>
+          <t>-0,31; 9,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 17,47</t>
+          <t>-5,71; 6,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,79; 13,18</t>
+          <t>-8,45; 1,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,37; 23,71</t>
+          <t>-7,23; 4,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,49; 7,31</t>
+          <t>-0,38; 11,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,98; 21,14</t>
+          <t>-6,25; 7,16</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-5,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,11%</t>
+          <t>-1,44%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,77%</t>
+          <t>-1,66%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,57%</t>
+          <t>-6,14%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 1,77</t>
+          <t>-6,75; 3,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 4,28</t>
+          <t>-6,58; 2,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 9,56</t>
+          <t>-3,97; 5,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 6,11</t>
+          <t>-13,19; 1,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 1,9</t>
+          <t>-7,23; 4,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 4,82</t>
+          <t>-6,97; 3,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 11,13</t>
+          <t>-4,18; 6,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 7,16</t>
+          <t>-15,23; 2,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2005-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP2005-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 12,16</t>
+          <t>-16,59; 11,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 18,27</t>
+          <t>-23,95; 16,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,49; 6,66</t>
+          <t>-27,51; 6,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,79; 13,18</t>
+          <t>-17,01; 12,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,37; 23,71</t>
+          <t>-25,85; 21,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-27,49; 7,31</t>
+          <t>-29,38; 7,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 5,99</t>
+          <t>-6,29; 5,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 7,88</t>
+          <t>-5,41; 7,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 13,13</t>
+          <t>-0,34; 11,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 8,24</t>
+          <t>-7,14; 7,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 6,79</t>
+          <t>-6,72; 6,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 9,22</t>
+          <t>-5,87; 8,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 15,74</t>
+          <t>-0,36; 13,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 9,86</t>
+          <t>-7,63; 8,82</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 9,45</t>
+          <t>-2,19; 9,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 4,47</t>
+          <t>-5,48; 4,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 4,65</t>
+          <t>-4,24; 4,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 8,27</t>
+          <t>-1,33; 7,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 11,67</t>
+          <t>-2,64; 11,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 5,05</t>
+          <t>-6,01; 4,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 5,12</t>
+          <t>-4,55; 5,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 9,66</t>
+          <t>-1,41; 8,94</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 1,77</t>
+          <t>-7,75; 2,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 4,28</t>
+          <t>-6,09; 5,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 9,56</t>
+          <t>-0,18; 9,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 6,11</t>
+          <t>-6,87; 6,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 1,9</t>
+          <t>-8,06; 2,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 4,82</t>
+          <t>-6,55; 5,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 11,13</t>
+          <t>-0,15; 11,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 7,16</t>
+          <t>-7,67; 7,47</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 3,7</t>
+          <t>-6,48; 3,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 2,96</t>
+          <t>-6,32; 3,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 5,38</t>
+          <t>-3,71; 5,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,19; 1,84</t>
+          <t>-12,86; 2,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 4,2</t>
+          <t>-6,96; 4,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 3,25</t>
+          <t>-6,62; 3,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 6,02</t>
+          <t>-4,0; 5,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 2,25</t>
+          <t>-14,81; 3,29</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 2,81</t>
+          <t>-2,91; 2,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,82</t>
+          <t>-3,39; 2,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,45</t>
+          <t>-0,44; 4,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 2,18</t>
+          <t>-3,64; 2,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 3,21</t>
+          <t>-3,24; 3,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 2,04</t>
+          <t>-3,67; 2,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 5,0</t>
+          <t>-0,48; 4,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 2,52</t>
+          <t>-4,07; 2,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2005-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP2005-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 11,04</t>
+          <t>-16,55; 12,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 16,76</t>
+          <t>-23,25; 17,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,51; 6,81</t>
+          <t>-27,19; 5,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 17,47</t>
+          <t>-12,95; 17,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,01; 12,55</t>
+          <t>-17,18; 13,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,85; 21,27</t>
+          <t>-25,28; 21,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-29,38; 7,21</t>
+          <t>-27,83; 5,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,98; 21,14</t>
+          <t>-13,32; 20,78</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 5,58</t>
+          <t>-7,2; 5,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 7,12</t>
+          <t>-5,96; 7,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 11,74</t>
+          <t>0,07; 12,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 7,46</t>
+          <t>-7,97; 6,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 6,34</t>
+          <t>-7,73; 5,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 8,34</t>
+          <t>-6,4; 8,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 13,75</t>
+          <t>0,14; 14,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 8,82</t>
+          <t>-8,68; 7,88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 9,25</t>
+          <t>-1,87; 9,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 4,16</t>
+          <t>-5,48; 4,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 4,79</t>
+          <t>-3,97; 4,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 7,73</t>
+          <t>-1,23; 7,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 11,58</t>
+          <t>-2,22; 12,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 4,75</t>
+          <t>-6,0; 5,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 5,32</t>
+          <t>-4,19; 5,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 8,94</t>
+          <t>-1,36; 8,89</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 2,51</t>
+          <t>-8,77; 1,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 5,05</t>
+          <t>-6,42; 4,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 9,65</t>
+          <t>-0,15; 9,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 6,31</t>
+          <t>-7,14; 5,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 2,74</t>
+          <t>-9,26; 1,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 5,74</t>
+          <t>-6,89; 4,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 11,2</t>
+          <t>-0,11; 10,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 7,47</t>
+          <t>-7,72; 6,34</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 3,92</t>
+          <t>-6,2; 3,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 3,45</t>
+          <t>-6,16; 3,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 5,08</t>
+          <t>-3,58; 5,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 2,63</t>
+          <t>-12,94; 1,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 4,5</t>
+          <t>-6,76; 4,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 3,78</t>
+          <t>-6,49; 3,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 5,68</t>
+          <t>-3,81; 6,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 3,29</t>
+          <t>-14,84; 2,2</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,8</t>
+          <t>-2,86; 2,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 2,1</t>
+          <t>-3,13; 2,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 4,38</t>
+          <t>-0,26; 4,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 2,44</t>
+          <t>-3,51; 2,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 3,18</t>
+          <t>-3,17; 3,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 2,33</t>
+          <t>-3,4; 2,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 4,87</t>
+          <t>-0,29; 5,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 2,79</t>
+          <t>-3,9; 2,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2005-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP2005-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,4</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,89%</t>
+          <t>-0,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,03%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-7,89%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,33%</t>
+          <t>-0,49%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 12,34</t>
+          <t>-6,17; 4,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 17,01</t>
+          <t>-5,67; 6,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,19; 5,48</t>
+          <t>-2,34; 9,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 17,15</t>
+          <t>-8,04; 6,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,18; 13,87</t>
+          <t>-6,64; 5,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,28; 21,57</t>
+          <t>-6,2; 7,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-27,83; 5,99</t>
+          <t>-2,51; 11,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 20,78</t>
+          <t>-8,64; 7,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,11</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,37%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>-0,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,05%</t>
+          <t>4,02%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 5,14</t>
+          <t>-1,97; 9,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 7,43</t>
+          <t>-5,4; 4,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 12,16</t>
+          <t>-3,43; 4,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 6,72</t>
+          <t>-1,54; 8,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 5,84</t>
+          <t>-2,28; 11,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 8,56</t>
+          <t>-5,86; 5,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,14; 14,67</t>
+          <t>-3,62; 5,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 7,88</t>
+          <t>-1,68; 10,25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>-3,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>-0,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 9,78</t>
+          <t>-7,97; 1,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 4,85</t>
+          <t>-6,82; 4,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 4,78</t>
+          <t>-0,31; 9,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 7,84</t>
+          <t>-4,26; 8,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 12,45</t>
+          <t>-8,45; 1,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 5,55</t>
+          <t>-7,23; 4,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 5,37</t>
+          <t>-0,38; 11,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 8,89</t>
+          <t>-4,7; 9,66</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-5,17</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,11%</t>
+          <t>-1,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,77%</t>
+          <t>-1,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,57%</t>
+          <t>-6,15%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 1,8</t>
+          <t>-6,75; 3,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 4,4</t>
+          <t>-6,58; 2,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 9,5</t>
+          <t>-3,97; 5,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 5,33</t>
+          <t>-13,22; 1,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 1,98</t>
+          <t>-7,23; 4,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 4,96</t>
+          <t>-6,97; 3,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 10,95</t>
+          <t>-4,18; 6,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 6,34</t>
+          <t>-15,18; 2,36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,15</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,44%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,66%</t>
+          <t>-0,63%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-6,14%</t>
+          <t>-0,2%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 3,74</t>
+          <t>-2,92; 2,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 3,23</t>
+          <t>-3,24; 1,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 5,42</t>
+          <t>-0,36; 4,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,94; 1,88</t>
+          <t>-3,81; 2,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 4,28</t>
+          <t>-3,27; 3,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 3,55</t>
+          <t>-3,53; 2,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 6,12</t>
+          <t>-0,34; 5,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-14,84; 2,2</t>
+          <t>-4,22; 3,3</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,04</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,72</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,02%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-0,63%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>2,24%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-0,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-2,86; 2,68</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,13; 2,17</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,26; 4,58</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-3,51; 2,58</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-3,17; 3,08</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-3,4; 2,43</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-0,29; 5,11</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-3,9; 2,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
